--- a/datosTotalesparaGompertzDpto.xlsx
+++ b/datosTotalesparaGompertzDpto.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3619,6 +3619,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>44038</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>651</v>
+      </c>
+      <c r="G148" t="n">
+        <v>147</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/datosTotalesparaGompertzDpto.xlsx
+++ b/datosTotalesparaGompertzDpto.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -57,19 +57,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001536098310291859</v>
+        <v>0.0007062146892655367</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001536098310291859</v>
+        <v>0.0007062146892655367</v>
       </c>
     </row>
     <row r="14">
@@ -690,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001536098310291859</v>
+        <v>0.0007062146892655367</v>
       </c>
     </row>
     <row r="15">
@@ -712,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001536098310291859</v>
+        <v>0.0007062146892655367</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001536098310291859</v>
+        <v>0.0007062146892655367</v>
       </c>
     </row>
     <row r="17">
@@ -756,7 +756,7 @@
         <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003072196620583717</v>
+        <v>0.001412429378531073</v>
       </c>
     </row>
     <row r="18">
@@ -778,7 +778,7 @@
         <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>0.004608294930875576</v>
+        <v>0.00211864406779661</v>
       </c>
     </row>
     <row r="19">
@@ -800,7 +800,7 @@
         <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.004943502824858757</v>
       </c>
     </row>
     <row r="20">
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.004943502824858757</v>
       </c>
     </row>
     <row r="21">
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01382488479262673</v>
+        <v>0.006355932203389831</v>
       </c>
     </row>
     <row r="22">
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01689708141321045</v>
+        <v>0.007768361581920904</v>
       </c>
     </row>
     <row r="23">
@@ -888,7 +888,7 @@
         <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01689708141321045</v>
+        <v>0.007768361581920904</v>
       </c>
     </row>
     <row r="24">
@@ -910,7 +910,7 @@
         <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01996927803379416</v>
+        <v>0.009180790960451978</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02150537634408602</v>
+        <v>0.009887005649717515</v>
       </c>
     </row>
     <row r="26">
@@ -954,7 +954,7 @@
         <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02304147465437788</v>
+        <v>0.01059322033898305</v>
       </c>
     </row>
     <row r="27">
@@ -976,7 +976,7 @@
         <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02304147465437788</v>
+        <v>0.01059322033898305</v>
       </c>
     </row>
     <row r="28">
@@ -998,7 +998,7 @@
         <v>27</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0261136712749616</v>
+        <v>0.01200564971751412</v>
       </c>
     </row>
     <row r="29">
@@ -1020,7 +1020,7 @@
         <v>28</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0261136712749616</v>
+        <v>0.01200564971751412</v>
       </c>
     </row>
     <row r="30">
@@ -1042,7 +1042,7 @@
         <v>29</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03379416282642089</v>
+        <v>0.01553672316384181</v>
       </c>
     </row>
     <row r="31">
@@ -1064,7 +1064,7 @@
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.01977401129943503</v>
       </c>
     </row>
     <row r="32">
@@ -1086,7 +1086,7 @@
         <v>31</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0445468509984639</v>
+        <v>0.02048022598870056</v>
       </c>
     </row>
     <row r="33">
@@ -1108,7 +1108,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.02189265536723164</v>
       </c>
     </row>
     <row r="34">
@@ -1130,7 +1130,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04915514592933948</v>
+        <v>0.02259887005649718</v>
       </c>
     </row>
     <row r="35">
@@ -1152,7 +1152,7 @@
         <v>34</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05069124423963134</v>
+        <v>0.02330508474576271</v>
       </c>
     </row>
     <row r="36">
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05222734254992319</v>
+        <v>0.02401129943502825</v>
       </c>
     </row>
     <row r="37">
@@ -1196,7 +1196,7 @@
         <v>36</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05529953917050692</v>
+        <v>0.02542372881355932</v>
       </c>
     </row>
     <row r="38">
@@ -1218,7 +1218,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05529953917050692</v>
+        <v>0.02542372881355932</v>
       </c>
     </row>
     <row r="39">
@@ -1240,7 +1240,7 @@
         <v>38</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05683563748079877</v>
+        <v>0.02612994350282486</v>
       </c>
     </row>
     <row r="40">
@@ -1262,7 +1262,7 @@
         <v>39</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05990783410138249</v>
+        <v>0.02754237288135593</v>
       </c>
     </row>
     <row r="41">
@@ -1284,7 +1284,7 @@
         <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06758832565284179</v>
+        <v>0.03107344632768362</v>
       </c>
     </row>
     <row r="42">
@@ -1306,7 +1306,7 @@
         <v>41</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06758832565284179</v>
+        <v>0.03107344632768362</v>
       </c>
     </row>
     <row r="43">
@@ -1328,7 +1328,7 @@
         <v>42</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07066052227342549</v>
+        <v>0.03248587570621469</v>
       </c>
     </row>
     <row r="44">
@@ -1350,7 +1350,7 @@
         <v>43</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07373271889400922</v>
+        <v>0.03389830508474576</v>
       </c>
     </row>
     <row r="45">
@@ -1372,7 +1372,7 @@
         <v>44</v>
       </c>
       <c r="H45" t="n">
-        <v>0.08141321044546851</v>
+        <v>0.03742937853107345</v>
       </c>
     </row>
     <row r="46">
@@ -1394,7 +1394,7 @@
         <v>45</v>
       </c>
       <c r="H46" t="n">
-        <v>0.08141321044546851</v>
+        <v>0.03742937853107345</v>
       </c>
     </row>
     <row r="47">
@@ -1416,7 +1416,7 @@
         <v>46</v>
       </c>
       <c r="H47" t="n">
-        <v>0.08141321044546851</v>
+        <v>0.03742937853107345</v>
       </c>
     </row>
     <row r="48">
@@ -1438,7 +1438,7 @@
         <v>47</v>
       </c>
       <c r="H48" t="n">
-        <v>0.08141321044546851</v>
+        <v>0.03742937853107345</v>
       </c>
     </row>
     <row r="49">
@@ -1460,7 +1460,7 @@
         <v>48</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08141321044546851</v>
+        <v>0.03742937853107345</v>
       </c>
     </row>
     <row r="50">
@@ -1482,7 +1482,7 @@
         <v>49</v>
       </c>
       <c r="H50" t="n">
-        <v>0.08141321044546851</v>
+        <v>0.03742937853107345</v>
       </c>
     </row>
     <row r="51">
@@ -1504,7 +1504,7 @@
         <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>0.08294930875576037</v>
+        <v>0.03813559322033899</v>
       </c>
     </row>
     <row r="52">
@@ -1526,7 +1526,7 @@
         <v>51</v>
       </c>
       <c r="H52" t="n">
-        <v>0.08448540706605223</v>
+        <v>0.03884180790960452</v>
       </c>
     </row>
     <row r="53">
@@ -1548,7 +1548,7 @@
         <v>52</v>
       </c>
       <c r="H53" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.03954802259887006</v>
       </c>
     </row>
     <row r="54">
@@ -1570,7 +1570,7 @@
         <v>53</v>
       </c>
       <c r="H54" t="n">
-        <v>0.08755760368663594</v>
+        <v>0.04025423728813559</v>
       </c>
     </row>
     <row r="55">
@@ -1592,7 +1592,7 @@
         <v>54</v>
       </c>
       <c r="H55" t="n">
-        <v>0.09062980030721966</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="56">
@@ -1614,7 +1614,7 @@
         <v>55</v>
       </c>
       <c r="H56" t="n">
-        <v>0.09062980030721966</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="57">
@@ -1636,7 +1636,7 @@
         <v>56</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1044546850998464</v>
+        <v>0.0480225988700565</v>
       </c>
     </row>
     <row r="58">
@@ -1658,7 +1658,7 @@
         <v>57</v>
       </c>
       <c r="H58" t="n">
-        <v>0.109062980030722</v>
+        <v>0.05014124293785311</v>
       </c>
     </row>
     <row r="59">
@@ -1680,7 +1680,7 @@
         <v>58</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1213517665130568</v>
+        <v>0.0557909604519774</v>
       </c>
     </row>
     <row r="60">
@@ -1702,7 +1702,7 @@
         <v>59</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.05932203389830509</v>
       </c>
     </row>
     <row r="61">
@@ -1724,7 +1724,7 @@
         <v>60</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.05932203389830509</v>
       </c>
     </row>
     <row r="62">
@@ -1746,7 +1746,7 @@
         <v>61</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1351766513056836</v>
+        <v>0.06214689265536723</v>
       </c>
     </row>
     <row r="63">
@@ -1768,7 +1768,7 @@
         <v>62</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1505376344086022</v>
+        <v>0.0692090395480226</v>
       </c>
     </row>
     <row r="64">
@@ -1790,7 +1790,7 @@
         <v>63</v>
       </c>
       <c r="H64" t="n">
-        <v>0.152073732718894</v>
+        <v>0.06991525423728813</v>
       </c>
     </row>
     <row r="65">
@@ -1812,7 +1812,7 @@
         <v>64</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1536098310291859</v>
+        <v>0.07062146892655367</v>
       </c>
     </row>
     <row r="66">
@@ -1834,7 +1834,7 @@
         <v>65</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1551459293394777</v>
+        <v>0.0713276836158192</v>
       </c>
     </row>
     <row r="67">
@@ -1856,7 +1856,7 @@
         <v>66</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1597542242703533</v>
+        <v>0.07344632768361582</v>
       </c>
     </row>
     <row r="68">
@@ -1878,7 +1878,7 @@
         <v>67</v>
       </c>
       <c r="H68" t="n">
-        <v>0.162826420890937</v>
+        <v>0.0748587570621469</v>
       </c>
     </row>
     <row r="69">
@@ -1900,7 +1900,7 @@
         <v>68</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1658986175115207</v>
+        <v>0.07627118644067797</v>
       </c>
     </row>
     <row r="70">
@@ -1922,7 +1922,7 @@
         <v>69</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1720430107526882</v>
+        <v>0.07909604519774012</v>
       </c>
     </row>
     <row r="71">
@@ -1944,7 +1944,7 @@
         <v>70</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1751152073732719</v>
+        <v>0.08050847457627118</v>
       </c>
     </row>
     <row r="72">
@@ -1966,7 +1966,7 @@
         <v>71</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1751152073732719</v>
+        <v>0.08050847457627118</v>
       </c>
     </row>
     <row r="73">
@@ -1988,7 +1988,7 @@
         <v>72</v>
       </c>
       <c r="H73" t="n">
-        <v>0.184331797235023</v>
+        <v>0.0847457627118644</v>
       </c>
     </row>
     <row r="74">
@@ -2010,7 +2010,7 @@
         <v>73</v>
       </c>
       <c r="H74" t="n">
-        <v>0.184331797235023</v>
+        <v>0.0847457627118644</v>
       </c>
     </row>
     <row r="75">
@@ -2032,7 +2032,7 @@
         <v>74</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1858678955453149</v>
+        <v>0.08545197740112995</v>
       </c>
     </row>
     <row r="76">
@@ -2054,7 +2054,7 @@
         <v>75</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.08898305084745763</v>
       </c>
     </row>
     <row r="77">
@@ -2076,7 +2076,7 @@
         <v>76</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.08898305084745763</v>
       </c>
     </row>
     <row r="78">
@@ -2098,7 +2098,7 @@
         <v>77</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.08898305084745763</v>
       </c>
     </row>
     <row r="79">
@@ -2120,7 +2120,7 @@
         <v>78</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.08898305084745763</v>
       </c>
     </row>
     <row r="80">
@@ -2142,7 +2142,7 @@
         <v>79</v>
       </c>
       <c r="H80" t="n">
-        <v>0.195084485407066</v>
+        <v>0.08968926553672317</v>
       </c>
     </row>
     <row r="81">
@@ -2164,7 +2164,7 @@
         <v>80</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1966205837173579</v>
+        <v>0.0903954802259887</v>
       </c>
     </row>
     <row r="82">
@@ -2186,7 +2186,7 @@
         <v>81</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.09392655367231638</v>
       </c>
     </row>
     <row r="83">
@@ -2208,7 +2208,7 @@
         <v>82</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2089093701996928</v>
+        <v>0.096045197740113</v>
       </c>
     </row>
     <row r="84">
@@ -2230,7 +2230,7 @@
         <v>83</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2119815668202765</v>
+        <v>0.09745762711864407</v>
       </c>
     </row>
     <row r="85">
@@ -2252,7 +2252,7 @@
         <v>84</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2119815668202765</v>
+        <v>0.09745762711864407</v>
       </c>
     </row>
     <row r="86">
@@ -2274,7 +2274,7 @@
         <v>85</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2119815668202765</v>
+        <v>0.09745762711864407</v>
       </c>
     </row>
     <row r="87">
@@ -2296,7 +2296,7 @@
         <v>86</v>
       </c>
       <c r="H87" t="n">
-        <v>0.2165898617511521</v>
+        <v>0.09957627118644068</v>
       </c>
     </row>
     <row r="88">
@@ -2318,7 +2318,7 @@
         <v>87</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2227342549923195</v>
+        <v>0.1024011299435028</v>
       </c>
     </row>
     <row r="89">
@@ -2340,7 +2340,7 @@
         <v>88</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2319508448540707</v>
+        <v>0.106638418079096</v>
       </c>
     </row>
     <row r="90">
@@ -2362,7 +2362,7 @@
         <v>89</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2473118279569892</v>
+        <v>0.1137005649717514</v>
       </c>
     </row>
     <row r="91">
@@ -2384,7 +2384,7 @@
         <v>90</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2473118279569892</v>
+        <v>0.1137005649717514</v>
       </c>
     </row>
     <row r="92">
@@ -2406,7 +2406,7 @@
         <v>91</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2473118279569892</v>
+        <v>0.1137005649717514</v>
       </c>
     </row>
     <row r="93">
@@ -2428,7 +2428,7 @@
         <v>92</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2549923195084485</v>
+        <v>0.1172316384180791</v>
       </c>
     </row>
     <row r="94">
@@ -2450,7 +2450,7 @@
         <v>93</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2672811059907834</v>
+        <v>0.1228813559322034</v>
       </c>
     </row>
     <row r="95">
@@ -2472,7 +2472,7 @@
         <v>94</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2764976958525346</v>
+        <v>0.1271186440677966</v>
       </c>
     </row>
     <row r="96">
@@ -2494,7 +2494,7 @@
         <v>95</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2811059907834101</v>
+        <v>0.1292372881355932</v>
       </c>
     </row>
     <row r="97">
@@ -2516,7 +2516,7 @@
         <v>96</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2887864823348694</v>
+        <v>0.1327683615819209</v>
       </c>
     </row>
     <row r="98">
@@ -2538,7 +2538,7 @@
         <v>97</v>
       </c>
       <c r="H98" t="n">
-        <v>0.2949308755760369</v>
+        <v>0.1355932203389831</v>
       </c>
     </row>
     <row r="99">
@@ -2560,7 +2560,7 @@
         <v>98</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2949308755760369</v>
+        <v>0.1355932203389831</v>
       </c>
     </row>
     <row r="100">
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2995391705069124</v>
+        <v>0.1377118644067797</v>
       </c>
     </row>
     <row r="101">
@@ -2604,7 +2604,7 @@
         <v>100</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.1384180790960452</v>
       </c>
     </row>
     <row r="102">
@@ -2626,7 +2626,7 @@
         <v>101</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.143361581920904</v>
       </c>
     </row>
     <row r="103">
@@ -2648,7 +2648,7 @@
         <v>102</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3271889400921659</v>
+        <v>0.1504237288135593</v>
       </c>
     </row>
     <row r="104">
@@ -2670,7 +2670,7 @@
         <v>103</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3440860215053764</v>
+        <v>0.1581920903954802</v>
       </c>
     </row>
     <row r="105">
@@ -2692,7 +2692,7 @@
         <v>104</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3486943164362519</v>
+        <v>0.1603107344632768</v>
       </c>
     </row>
     <row r="106">
@@ -2714,7 +2714,7 @@
         <v>105</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3486943164362519</v>
+        <v>0.1603107344632768</v>
       </c>
     </row>
     <row r="107">
@@ -2736,7 +2736,7 @@
         <v>106</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3533026113671275</v>
+        <v>0.1624293785310734</v>
       </c>
     </row>
     <row r="108">
@@ -2758,7 +2758,7 @@
         <v>107</v>
       </c>
       <c r="H108" t="n">
-        <v>0.3609831029185868</v>
+        <v>0.1659604519774011</v>
       </c>
     </row>
     <row r="109">
@@ -2780,7 +2780,7 @@
         <v>108</v>
       </c>
       <c r="H109" t="n">
-        <v>0.3686635944700461</v>
+        <v>0.1694915254237288</v>
       </c>
     </row>
     <row r="110">
@@ -2802,7 +2802,7 @@
         <v>109</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3701996927803379</v>
+        <v>0.1701977401129944</v>
       </c>
     </row>
     <row r="111">
@@ -2824,7 +2824,7 @@
         <v>110</v>
       </c>
       <c r="H111" t="n">
-        <v>0.3778801843317972</v>
+        <v>0.173728813559322</v>
       </c>
     </row>
     <row r="112">
@@ -2846,7 +2846,7 @@
         <v>111</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3794162826420891</v>
+        <v>0.1744350282485876</v>
       </c>
     </row>
     <row r="113">
@@ -2868,7 +2868,7 @@
         <v>112</v>
       </c>
       <c r="H113" t="n">
-        <v>0.3794162826420891</v>
+        <v>0.1744350282485876</v>
       </c>
     </row>
     <row r="114">
@@ -2890,7 +2890,7 @@
         <v>113</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3824884792626728</v>
+        <v>0.1758474576271186</v>
       </c>
     </row>
     <row r="115">
@@ -2912,7 +2912,7 @@
         <v>114</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3932411674347158</v>
+        <v>0.1807909604519774</v>
       </c>
     </row>
     <row r="116">
@@ -2934,7 +2934,7 @@
         <v>115</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3947772657450077</v>
+        <v>0.1814971751412429</v>
       </c>
     </row>
     <row r="117">
@@ -2956,7 +2956,7 @@
         <v>116</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3993855606758833</v>
+        <v>0.1836158192090395</v>
       </c>
     </row>
     <row r="118">
@@ -2978,7 +2978,7 @@
         <v>117</v>
       </c>
       <c r="H118" t="n">
-        <v>0.4101382488479263</v>
+        <v>0.1885593220338983</v>
       </c>
     </row>
     <row r="119">
@@ -3000,7 +3000,7 @@
         <v>118</v>
       </c>
       <c r="H119" t="n">
-        <v>0.4147465437788018</v>
+        <v>0.1906779661016949</v>
       </c>
     </row>
     <row r="120">
@@ -3022,7 +3022,7 @@
         <v>119</v>
       </c>
       <c r="H120" t="n">
-        <v>0.4162826420890937</v>
+        <v>0.1913841807909605</v>
       </c>
     </row>
     <row r="121">
@@ -3044,7 +3044,7 @@
         <v>120</v>
       </c>
       <c r="H121" t="n">
-        <v>0.4224270353302612</v>
+        <v>0.1942090395480226</v>
       </c>
     </row>
     <row r="122">
@@ -3066,7 +3066,7 @@
         <v>121</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4316436251920123</v>
+        <v>0.1984463276836158</v>
       </c>
     </row>
     <row r="123">
@@ -3088,7 +3088,7 @@
         <v>122</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4485407066052227</v>
+        <v>0.2062146892655367</v>
       </c>
     </row>
     <row r="124">
@@ -3110,7 +3110,7 @@
         <v>123</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4546850998463902</v>
+        <v>0.2090395480225989</v>
       </c>
     </row>
     <row r="125">
@@ -3132,7 +3132,7 @@
         <v>124</v>
       </c>
       <c r="H125" t="n">
-        <v>0.4592933947772657</v>
+        <v>0.2111581920903955</v>
       </c>
     </row>
     <row r="126">
@@ -3154,7 +3154,7 @@
         <v>125</v>
       </c>
       <c r="H126" t="n">
-        <v>0.4608294930875576</v>
+        <v>0.211864406779661</v>
       </c>
     </row>
     <row r="127">
@@ -3176,7 +3176,7 @@
         <v>126</v>
       </c>
       <c r="H127" t="n">
-        <v>0.4608294930875576</v>
+        <v>0.211864406779661</v>
       </c>
     </row>
     <row r="128">
@@ -3192,13 +3192,13 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G128" t="n">
         <v>127</v>
       </c>
       <c r="H128" t="n">
-        <v>0.4654377880184332</v>
+        <v>0.2146892655367232</v>
       </c>
     </row>
     <row r="129">
@@ -3214,13 +3214,13 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G129" t="n">
         <v>128</v>
       </c>
       <c r="H129" t="n">
-        <v>0.4777265745007681</v>
+        <v>0.221045197740113</v>
       </c>
     </row>
     <row r="130">
@@ -3236,13 +3236,13 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G130" t="n">
         <v>129</v>
       </c>
       <c r="H130" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.2401129943502825</v>
       </c>
     </row>
     <row r="131">
@@ -3258,13 +3258,13 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G131" t="n">
         <v>130</v>
       </c>
       <c r="H131" t="n">
-        <v>0.5376344086021505</v>
+        <v>0.2514124293785311</v>
       </c>
     </row>
     <row r="132">
@@ -3280,13 +3280,13 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G132" t="n">
         <v>131</v>
       </c>
       <c r="H132" t="n">
-        <v>0.6251920122887865</v>
+        <v>0.2909604519774011</v>
       </c>
     </row>
     <row r="133">
@@ -3302,13 +3302,13 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G133" t="n">
         <v>132</v>
       </c>
       <c r="H133" t="n">
-        <v>0.6374807987711214</v>
+        <v>0.297316384180791</v>
       </c>
     </row>
     <row r="134">
@@ -3324,13 +3324,13 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="G134" t="n">
         <v>133</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6390168970814132</v>
+        <v>0.2980225988700565</v>
       </c>
     </row>
     <row r="135">
@@ -3346,13 +3346,13 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="G135" t="n">
         <v>134</v>
       </c>
       <c r="H135" t="n">
-        <v>0.65284178187404</v>
+        <v>0.3199152542372881</v>
       </c>
     </row>
     <row r="136">
@@ -3368,13 +3368,13 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="G136" t="n">
         <v>135</v>
       </c>
       <c r="H136" t="n">
-        <v>0.7158218125960062</v>
+        <v>0.3651129943502825</v>
       </c>
     </row>
     <row r="137">
@@ -3390,13 +3390,13 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="G137" t="n">
         <v>136</v>
       </c>
       <c r="H137" t="n">
-        <v>0.738863287250384</v>
+        <v>0.3884180790960452</v>
       </c>
     </row>
     <row r="138">
@@ -3412,13 +3412,13 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>496</v>
+        <v>605</v>
       </c>
       <c r="G138" t="n">
         <v>137</v>
       </c>
       <c r="H138" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.4272598870056497</v>
       </c>
     </row>
     <row r="139">
@@ -3434,13 +3434,13 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>524</v>
+        <v>659</v>
       </c>
       <c r="G139" t="n">
         <v>138</v>
       </c>
       <c r="H139" t="n">
-        <v>0.804915514592934</v>
+        <v>0.4653954802259887</v>
       </c>
     </row>
     <row r="140">
@@ -3456,13 +3456,13 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>535</v>
+        <v>685</v>
       </c>
       <c r="G140" t="n">
         <v>139</v>
       </c>
       <c r="H140" t="n">
-        <v>0.8218125960061444</v>
+        <v>0.4837570621468927</v>
       </c>
     </row>
     <row r="141">
@@ -3478,13 +3478,13 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>571</v>
+        <v>724</v>
       </c>
       <c r="G141" t="n">
         <v>140</v>
       </c>
       <c r="H141" t="n">
-        <v>0.8771121351766513</v>
+        <v>0.5112994350282486</v>
       </c>
     </row>
     <row r="142">
@@ -3500,13 +3500,13 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>586</v>
+        <v>746</v>
       </c>
       <c r="G142" t="n">
         <v>141</v>
       </c>
       <c r="H142" t="n">
-        <v>0.9001536098310292</v>
+        <v>0.5268361581920904</v>
       </c>
     </row>
     <row r="143">
@@ -3522,13 +3522,13 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>628</v>
+        <v>823</v>
       </c>
       <c r="G143" t="n">
         <v>142</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9646697388632872</v>
+        <v>0.5812146892655368</v>
       </c>
     </row>
     <row r="144">
@@ -3544,13 +3544,13 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>638</v>
+        <v>874</v>
       </c>
       <c r="G144" t="n">
         <v>143</v>
       </c>
       <c r="H144" t="n">
-        <v>0.9800307219662059</v>
+        <v>0.617231638418079</v>
       </c>
     </row>
     <row r="145">
@@ -3566,13 +3566,13 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>644</v>
+        <v>911</v>
       </c>
       <c r="G145" t="n">
         <v>144</v>
       </c>
       <c r="H145" t="n">
-        <v>0.989247311827957</v>
+        <v>0.643361581920904</v>
       </c>
     </row>
     <row r="146">
@@ -3588,13 +3588,13 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>647</v>
+        <v>987</v>
       </c>
       <c r="G146" t="n">
         <v>145</v>
       </c>
       <c r="H146" t="n">
-        <v>0.9938556067588326</v>
+        <v>0.6970338983050848</v>
       </c>
     </row>
     <row r="147">
@@ -3610,13 +3610,13 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>651</v>
+        <v>1019</v>
       </c>
       <c r="G147" t="n">
         <v>146</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0.719632768361582</v>
       </c>
     </row>
     <row r="148">
@@ -3627,21 +3627,351 @@
         <v>44038</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>651</v>
+        <v>1032</v>
       </c>
       <c r="G148" t="n">
         <v>147</v>
       </c>
       <c r="H148" t="n">
+        <v>0.7288135593220338</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>44039</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="n">
+        <v>1062</v>
+      </c>
+      <c r="G149" t="n">
+        <v>148</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>44040</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>1113</v>
+      </c>
+      <c r="G150" t="n">
+        <v>149</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.7860169491525424</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>44041</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>1149</v>
+      </c>
+      <c r="G151" t="n">
+        <v>150</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.8114406779661016</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>44042</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>1193</v>
+      </c>
+      <c r="G152" t="n">
+        <v>151</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.8425141242937854</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>1254</v>
+      </c>
+      <c r="G153" t="n">
+        <v>152</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.885593220338983</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="n">
+        <v>1283</v>
+      </c>
+      <c r="G154" t="n">
+        <v>153</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.9060734463276836</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>44045</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>1303</v>
+      </c>
+      <c r="G155" t="n">
+        <v>154</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.9201977401129944</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>44046</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>1337</v>
+      </c>
+      <c r="G156" t="n">
+        <v>155</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.9442090395480226</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>44047</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="n">
+        <v>1353</v>
+      </c>
+      <c r="G157" t="n">
+        <v>156</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.9555084745762712</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>44048</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="n">
+        <v>1379</v>
+      </c>
+      <c r="G158" t="n">
+        <v>157</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.9738700564971752</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>44049</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="n">
+        <v>1406</v>
+      </c>
+      <c r="G159" t="n">
+        <v>158</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.9929378531073446</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>44050</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>1410</v>
+      </c>
+      <c r="G160" t="n">
+        <v>159</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.9957627118644068</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>44051</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="n">
+        <v>1415</v>
+      </c>
+      <c r="G161" t="n">
+        <v>160</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.9992937853107344</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>44052</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="n">
+        <v>1416</v>
+      </c>
+      <c r="G162" t="n">
+        <v>161</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>44053</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="n">
+        <v>1416</v>
+      </c>
+      <c r="G163" t="n">
+        <v>162</v>
+      </c>
+      <c r="H163" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>